--- a/123456.xlsx
+++ b/123456.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,114 +331,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A10:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>213213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1321</v>
-      </c>
-    </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32132</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>132</v>
-      </c>
-    </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
@@ -517,11 +420,6 @@
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
